--- a/xlsx/军事政变_intext.xlsx
+++ b/xlsx/军事政变_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="696">
   <si>
     <t>军事政变</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B5%E8%AE%8A_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>兵變 (消歧義)</t>
+    <t>兵变 (消歧义)</t>
   </si>
   <si>
     <t>政策_政策_政治_军事政变</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>陸軍</t>
+    <t>陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%88%98</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太空戰爭</t>
+    <t>太空战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>戰場</t>
+    <t>战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%A6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E6%88%B0</t>
   </si>
   <si>
-    <t>網路戰</t>
+    <t>网路战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%8E%AE%E6%88%B0</t>
   </si>
   <si>
-    <t>城鎮戰</t>
+    <t>城镇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>騎兵</t>
+    <t>骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%98%E5%85%B5</t>
   </si>
   <si>
-    <t>傘兵</t>
+    <t>伞兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E6%88%B0%E9%AC%A5%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>裝甲戰鬥車輛</t>
+    <t>装甲战斗车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%82%AE</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>飛彈</t>
+    <t>飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E9%A8%8E%E5%85%B5%E5%9C%98</t>
   </si>
   <si>
-    <t>裝甲騎兵團</t>
+    <t>装甲骑兵团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>軍艦</t>
+    <t>军舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E8%89%87</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>化學武器</t>
+    <t>化学武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%88%98%E4%BA%89</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%8F%E6%A8%A1%E6%AE%BA%E5%82%B7%E6%80%A7%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>大規模殺傷性武器</t>
+    <t>大规模杀伤性武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%88%98</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%A6%8F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>常規戰爭</t>
+    <t>常规战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>會戰</t>
+    <t>会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%91%E5%A3%95%E6%88%98</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E6%88%B0</t>
   </si>
   <si>
-    <t>閃電戰</t>
+    <t>闪电战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unconventional_warfare</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%99%90%E6%88%B0</t>
   </si>
   <si>
-    <t>超限戰</t>
+    <t>超限战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E5%A1%9E</t>
@@ -299,13 +299,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>兩棲作戰</t>
+    <t>两栖作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%88%B6%E6%BD%9B%E8%89%87%E6%88%B0</t>
   </si>
   <si>
-    <t>無限制潛艇戰</t>
+    <t>无限制潜艇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E4%BD%93%E6%88%98</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9B%B7%E9%99%A3</t>
   </si>
   <si>
-    <t>地雷陣</t>
+    <t>地雷阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%AE%E5%85%B5</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E6%B7%B1%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>縱深作戰</t>
+    <t>纵深作战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/joint_warfare</t>
@@ -359,25 +359,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%BC%B7%E5%BA%A6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>低強度戰爭</t>
+    <t>低强度战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%82%8A%E6%88%B0%E8%A1%93</t>
   </si>
   <si>
-    <t>費邊戰術</t>
+    <t>费边战术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E4%B8%AD%E5%BF%83%E6%88%B0</t>
   </si>
   <si>
-    <t>網絡中心戰</t>
+    <t>网络中心战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E9%80%B8%E5%BE%85%E5%8B%9E</t>
   </si>
   <si>
-    <t>以逸待勞</t>
+    <t>以逸待劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E8%A1%9B%E6%88%B0</t>
   </si>
   <si>
-    <t>防衛戰</t>
+    <t>防卫战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5</t>
@@ -413,31 +413,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>武裝衝突</t>
+    <t>武装冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BA%92%E4%BF%9D%E8%AD%89%E6%AF%80%E6%BB%85</t>
   </si>
   <si>
-    <t>相互保證毀滅</t>
+    <t>相互保证毁灭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8</t>
   </si>
   <si>
-    <t>戰略轟炸</t>
+    <t>战略轰炸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E9%96%93%E8%AB%9C</t>
   </si>
   <si>
-    <t>軍事間諜</t>
+    <t>军事间谍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E5%9C%9F%E6%94%BF%E7%AD%96</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>軍事組織</t>
+    <t>军事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E5%8F%82%E8%B0%8B%E9%83%A8</t>
@@ -485,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E5%BD%A2</t>
   </si>
   <si>
-    <t>陣形</t>
+    <t>阵形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%88%B0%E5%BA%8F%E5%88%97</t>
   </si>
   <si>
-    <t>作戰序列</t>
+    <t>作战序列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E8%A1%94</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%82%99%E8%BB%8D%E4%BA%8B%E5%8B%95%E5%93%A1</t>
   </si>
   <si>
-    <t>後備軍事動員</t>
+    <t>后备军事动员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%8B%A4</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9C%80</t>
   </si>
   <si>
-    <t>軍需</t>
+    <t>军需</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A5%E7%BB%99%E7%BA%BF</t>
@@ -533,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E6%A5%AD%E8%A4%87%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>軍事工業複合體</t>
+    <t>军事工业复合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BE%8C%E6%96%B9</t>
   </si>
   <si>
-    <t>大後方</t>
+    <t>大后方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%B3%95%E5%AF%A9%E5%88%A4</t>
   </si>
   <si>
-    <t>軍法審判</t>
+    <t>军法审判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81%E6%B3%95</t>
   </si>
   <si>
-    <t>武裝衝突法</t>
+    <t>武装冲突法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8D%A0%E9%A2%86</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8F%98</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>軍政府</t>
+    <t>军政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%92%E4%B8%A5</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事學</t>
+    <t>军事学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E8%AE%BA</t>
@@ -641,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E5%AD%90%E5%85%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>孫子兵法</t>
+    <t>孙子兵法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E6%80%9D%E6%83%B3</t>
@@ -653,19 +653,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%8B%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>後勤學</t>
+    <t>后勤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事歷史學</t>
+    <t>军事历史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%85%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>三十六計</t>
+    <t>三十六计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%86%9B%E4%BA%8B%E5%88%97%E8%A1%A8</t>
@@ -677,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%BD%B9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>戰役列表</t>
+    <t>战役列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E4%BD%8D%E4%B8%BB%E4%B9%89</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%A8%AE%E5%B0%8D%E7%AB%8B</t>
   </si>
   <si>
-    <t>軍種對立</t>
+    <t>军种对立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -701,9 +701,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>軍事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -821,7 +818,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%84%E6%AD%A6%E9%96%80%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>玄武門之變</t>
+    <t>玄武门之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -839,19 +836,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E9%BE%8D%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>神龍革命</t>
+    <t>神龙革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E9%9A%86%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>唐隆之變</t>
+    <t>唐隆之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E5%A4%A9%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>先天之變</t>
+    <t>先天之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B5%AC%E4%B9%8B%E5%8F%98</t>
@@ -869,13 +866,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E9%9C%B2%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>甘露之變</t>
+    <t>甘露之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A6%AC%E4%B9%8B%E7%A6%8D</t>
   </si>
   <si>
-    <t>白馬之禍</t>
+    <t>白马之祸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%91%A8</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%85%83%E4%B9%8B%E4%BA%82</t>
   </si>
   <si>
-    <t>保元之亂</t>
+    <t>保元之乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B2%BB%E4%B9%8B%E4%B9%B1</t>
@@ -929,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E4%B8%AD%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>正中之變</t>
+    <t>正中之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E5%B8%96%E7%9D%A6%E5%B0%94</t>
@@ -941,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%83%E5%BC%98%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>元弘之變</t>
+    <t>元弘之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%9C%9D</t>
@@ -953,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%96%E9%9B%A3%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>靖難之變</t>
+    <t>靖难之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%BA%E9%97%A8%E4%B9%8B%E5%8F%98</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%87%89%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>明應之變</t>
+    <t>明应之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E6%B0%8F%E6%9C%9D%E9%B2%9C</t>
@@ -983,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%83%BD%E5%AF%BA%E4%B9%8B%E8%AE%8A</t>
   </si>
   <si>
-    <t>本能寺之變</t>
+    <t>本能寺之变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%94%BF%E5%BE%A9%E5%8F%A4</t>
   </si>
   <si>
-    <t>王政復古</t>
+    <t>王政复古</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%8A%E6%88%8C%E6%94%BF%E5%8F%98</t>
@@ -1061,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E4%B8%AD%E5%B1%B1</t>
   </si>
   <si>
-    <t>孫中山</t>
+    <t>孙中山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%98%8C%E8%B5%B7%E4%B9%89</t>
@@ -1079,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%88%BE%E4%BB%80%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>布爾什維克</t>
+    <t>布尔什维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81</t>
@@ -1103,13 +1100,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B%E8%87%A8%E6%99%82%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>俄國臨時政府</t>
+    <t>俄国临时政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%B6%AD%E5%9F%83%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇維埃俄國</t>
+    <t>苏维埃俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%B4%A2%E9%87%8C%E5%B0%BC</t>
@@ -1127,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E9%BB%A8</t>
   </si>
   <si>
-    <t>納粹黨</t>
+    <t>纳粹党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AF%E7%8E%89%E7%A5%A5</t>
@@ -1163,13 +1160,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%AD%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次中日戰爭</t>
+    <t>第二次中日战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E5%AD%A6%E8%89%AF</t>
@@ -1193,19 +1187,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C%E8%BB%8D%E4%BA%8B%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>國民政府軍事委員會</t>
+    <t>国民政府军事委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%BB%8B%E7%9F%B3</t>
   </si>
   <si>
-    <t>蔣介石</t>
+    <t>蒋介石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E6%96%AF%C2%B7%E9%A6%AE%C2%B7%E6%96%BD%E9%99%B6%E8%8A%AC%E8%B2%9D%E6%A0%BC</t>
   </si>
   <si>
-    <t>克勞斯·馮·施陶芬貝格</t>
+    <t>克劳斯·冯·施陶芬贝格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/7%E6%9C%8820%E6%97%A5%E5%AF%86%E8%B0%8B%E6%A1%88</t>
@@ -1223,13 +1217,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB</t>
   </si>
   <si>
-    <t>赫魯曉夫</t>
+    <t>赫鲁晓夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9E%97%E7%A7%91%E5%A4%AB</t>
@@ -1253,13 +1247,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
+    <t>阿尔及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%BA%94%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第五共和國</t>
+    <t>法兰西第五共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -1277,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/5%C2%B716%E8%BB%8D%E4%BA%8B%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>5·16軍事政變</t>
+    <t>5·16军事政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E5%A5%88%E6%B8%A9</t>
@@ -1301,25 +1295,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>蘇聯共產黨</t>
+    <t>苏联共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>中華民國陸軍</t>
+    <t>中华民国陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E5%8F%A3%E5%85%B5%E8%AE%8A</t>
   </si>
   <si>
-    <t>湖口兵變</t>
+    <t>湖口兵变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E4%B9%9D%C2%B7%E4%B8%89%E3%80%87%E4%BA%8B%E4%BB%B6</t>
@@ -1331,25 +1325,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%93%88%E6%89%98</t>
   </si>
   <si>
-    <t>蘇哈托</t>
+    <t>苏哈托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E9%98%BF%E9%82%81%E7%88%BE%C2%B7%E5%8D%A1%E6%89%8E%E8%8F%B2</t>
   </si>
   <si>
-    <t>穆阿邁爾·卡扎菲</t>
+    <t>穆阿迈尔·卡扎菲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>利比亞王國</t>
+    <t>利比亚王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -1379,7 +1373,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%89%B2%E9%AB%98%E6%A3%89</t>
   </si>
   <si>
-    <t>紅色高棉</t>
+    <t>红色高棉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -1391,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>柬埔寨人民共和國</t>
+    <t>柬埔寨人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
@@ -1403,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%AB%BE%E5%88%87%E7%89%B9</t>
   </si>
   <si>
-    <t>皮諾切特</t>
+    <t>皮诺切特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%C2%B7%E9%98%BF%E8%BF%9E%E5%BE%B7</t>
@@ -1505,31 +1499,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>大韓民國國軍</t>
+    <t>大韩民国国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%97%E7%85%A5</t>
   </si>
   <si>
-    <t>全斗煥</t>
+    <t>全斗焕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%9F%8E</t>
   </si>
   <si>
-    <t>漢城</t>
+    <t>汉城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%8D%81%E4%BA%8C%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>雙十二政變</t>
+    <t>双十二政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E6%98%87%E5%92%8C</t>
   </si>
   <si>
-    <t>鄭昇和</t>
+    <t>郑昇和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B4%94%E5%9C%AD%E5%A4%8F</t>
@@ -1547,13 +1541,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E8%88%88%E9%BB%A8</t>
   </si>
   <si>
-    <t>復興黨</t>
+    <t>复兴党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E9%81%94%E5%A7%86%C2%B7%E6%B5%B7%E7%8F%8A</t>
   </si>
   <si>
-    <t>薩達姆·海珊</t>
+    <t>萨达姆·海珊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1571,13 +1565,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
+    <t>独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%9C%8D%E6%8B%89%C2%B7%E7%A9%86%E8%96%A9%E7%B6%AD%C2%B7%E9%9C%8D%E6%A2%85%E5%B0%BC</t>
   </si>
   <si>
-    <t>魯霍拉·穆薩維·霍梅尼</t>
+    <t>鲁霍拉·穆萨维·霍梅尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E7%BB%B4%E7%8E%8B%E6%9C%9D</t>
@@ -1595,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -1619,15 +1613,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>蘇聯解體</t>
+    <t>苏联解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>泰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
@@ -1649,7 +1640,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E7%88%BE%E6%AC%BD</t>
   </si>
   <si>
-    <t>葉爾欽</t>
+    <t>叶尔钦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB_(%E8%8E%AB%E6%96%AF%E7%A7%91)</t>
@@ -1673,7 +1664,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AC%80%E7%B8%BD%E9%95%B7</t>
   </si>
   <si>
-    <t>參謀總長</t>
+    <t>参谋总长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%B2%99%E6%8B%89%E5%A4%AB</t>
@@ -1703,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/M16%E7%AA%81%E6%93%8A%E6%AD%A5%E6%A7%8D</t>
   </si>
   <si>
-    <t>M16突擊步槍</t>
+    <t>M16突击步枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%B0%B7</t>
@@ -1745,7 +1736,7 @@
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E6%B3%B0%E5%9C%8B%E8%BB%8D%E4%BA%8B%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>2006年泰國軍事政變</t>
+    <t>2006年泰国军事政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E4%BF%A1</t>
@@ -1757,7 +1748,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%BF%AA%C2%B7%E4%B9%8C%E5%B0%94%E5%BE%B7%C2%B7%E8%B0%A2%E8%B5%AB%C2%B7%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%E5%B8%8C</t>
@@ -1793,13 +1784,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9C%8B%E6%AD%A5%E6%A7%8D%E9%9A%8A%E5%8F%9B%E4%BA%82</t>
   </si>
   <si>
-    <t>孟加拉國步槍隊叛亂</t>
+    <t>孟加拉国步枪队叛乱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E7%88%BE</t>
   </si>
   <si>
-    <t>尼日爾</t>
+    <t>尼日尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -1811,7 +1802,7 @@
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%9C%9F%E8%80%B3%E5%85%B6%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>2016年土耳其政變</t>
+    <t>2016年土耳其政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -1823,7 +1814,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E5%9C%8B</t>
   </si>
   <si>
-    <t>叛國</t>
+    <t>叛国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%85%E5%8F%8D%E6%8A%97</t>
@@ -1841,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%94%E6%80%A7%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>柔性政變</t>
+    <t>柔性政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E6%9D%83</t>
@@ -1853,25 +1844,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8B%95</t>
   </si>
   <si>
-    <t>暴動</t>
+    <t>暴动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%89%E4%BA%8B</t>
   </si>
   <si>
-    <t>舉事</t>
+    <t>举事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%BD%E6%83%91%E5%8F%9B%E8%AE%8A</t>
   </si>
   <si>
-    <t>煽惑叛變</t>
+    <t>煽惑叛变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>深層政府</t>
+    <t>深层政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E6%94%BF%E5%8F%98</t>
@@ -1985,13 +1976,13 @@
     <t>https://zh.wikipedia.org/wiki/1999%E5%B9%B4%E5%B0%BC%E6%97%A5%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1999年尼日政變</t>
+    <t>1999年尼日政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1999%E5%B9%B4%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1999年巴基斯坦政變</t>
+    <t>1999年巴基斯坦政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E8%8F%B2%E5%BE%8B%E5%AE%BE%E6%94%BF%E5%8F%98</t>
@@ -2003,9 +1994,6 @@
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E6%B3%B0%E5%9B%BD%E5%86%9B%E4%BA%8B%E6%94%BF%E5%8F%98</t>
   </si>
   <si>
-    <t>2006年泰国军事政变</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E6%96%90%E6%B5%8E%E5%86%9B%E4%BA%8B%E6%94%BF%E5%8F%98</t>
   </si>
   <si>
@@ -2015,19 +2003,19 @@
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%EF%BC%8D2009%E5%B9%B4%E6%B3%B0%E5%9C%8B%E6%94%BF%E6%B2%BB%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>2008年－2009年泰國政治危機</t>
+    <t>2008年－2009年泰国政治危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0%E6%94%BF%E6%B2%BB%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>2009年馬達加斯加政治危機</t>
+    <t>2009年马达加斯加政治危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF%E8%BB%8D%E4%BA%8B%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>2009年宏都拉斯軍事政變</t>
+    <t>2009年宏都拉斯军事政变</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/2012_Guinea-Bissau_coup_d%27%C3%A9tat</t>
@@ -2057,19 +2045,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>南蘇丹內戰</t>
+    <t>南苏丹内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E7%83%8F%E5%85%8B%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>2014年烏克蘭革命</t>
+    <t>2014年乌克兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E6%B3%B0%E5%9C%8B%E8%BB%8D%E4%BA%8B%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>2014年泰國軍事政變</t>
+    <t>2014年泰国军事政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E8%8E%B1%E7%B4%A2%E6%89%98%E6%94%BF%E5%8F%98</t>
@@ -2093,13 +2081,13 @@
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E8%92%B2%E9%9A%86%E5%9C%B0%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>2015年蒲隆地政變</t>
+    <t>2015年蒲隆地政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2015%E5%B9%B4%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>2015年布吉納法索政變</t>
+    <t>2015年布吉纳法索政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6%E6%94%BF%E5%8F%98</t>
@@ -5849,7 +5837,7 @@
         <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="G117" t="n">
         <v>24</v>
@@ -5875,10 +5863,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5904,10 +5892,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -5933,10 +5921,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5962,10 +5950,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5991,10 +5979,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6020,10 +6008,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6049,10 +6037,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>240</v>
+      </c>
+      <c r="F124" t="s">
         <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>242</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6078,10 +6066,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
-      </c>
-      <c r="F125" t="s">
-        <v>244</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6107,10 +6095,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6136,10 +6124,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6165,10 +6153,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6194,10 +6182,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6223,10 +6211,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6252,10 +6240,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6281,10 +6269,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6310,10 +6298,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>258</v>
+      </c>
+      <c r="F133" t="s">
         <v>259</v>
-      </c>
-      <c r="F133" t="s">
-        <v>260</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6339,10 +6327,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>260</v>
+      </c>
+      <c r="F134" t="s">
         <v>261</v>
-      </c>
-      <c r="F134" t="s">
-        <v>262</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6368,10 +6356,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>262</v>
+      </c>
+      <c r="F135" t="s">
         <v>263</v>
-      </c>
-      <c r="F135" t="s">
-        <v>264</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6397,10 +6385,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" t="s">
         <v>265</v>
-      </c>
-      <c r="F136" t="s">
-        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>7</v>
@@ -6426,10 +6414,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
         <v>267</v>
-      </c>
-      <c r="F137" t="s">
-        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6455,10 +6443,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>268</v>
+      </c>
+      <c r="F138" t="s">
         <v>269</v>
-      </c>
-      <c r="F138" t="s">
-        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>11</v>
@@ -6484,10 +6472,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>270</v>
+      </c>
+      <c r="F139" t="s">
         <v>271</v>
-      </c>
-      <c r="F139" t="s">
-        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6513,10 +6501,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>272</v>
+      </c>
+      <c r="F140" t="s">
         <v>273</v>
-      </c>
-      <c r="F140" t="s">
-        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6542,10 +6530,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>274</v>
+      </c>
+      <c r="F141" t="s">
         <v>275</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6571,10 +6559,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="s">
         <v>277</v>
-      </c>
-      <c r="F142" t="s">
-        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6600,10 +6588,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>278</v>
+      </c>
+      <c r="F143" t="s">
         <v>279</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6629,10 +6617,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>280</v>
+      </c>
+      <c r="F144" t="s">
         <v>281</v>
-      </c>
-      <c r="F144" t="s">
-        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6658,10 +6646,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>282</v>
+      </c>
+      <c r="F145" t="s">
         <v>283</v>
-      </c>
-      <c r="F145" t="s">
-        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6687,10 +6675,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>284</v>
+      </c>
+      <c r="F146" t="s">
         <v>285</v>
-      </c>
-      <c r="F146" t="s">
-        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6716,10 +6704,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>286</v>
+      </c>
+      <c r="F147" t="s">
         <v>287</v>
-      </c>
-      <c r="F147" t="s">
-        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6745,10 +6733,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>288</v>
+      </c>
+      <c r="F148" t="s">
         <v>289</v>
-      </c>
-      <c r="F148" t="s">
-        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6774,10 +6762,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>290</v>
+      </c>
+      <c r="F149" t="s">
         <v>291</v>
-      </c>
-      <c r="F149" t="s">
-        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6803,10 +6791,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>292</v>
+      </c>
+      <c r="F150" t="s">
         <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6832,10 +6820,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>294</v>
+      </c>
+      <c r="F151" t="s">
         <v>295</v>
-      </c>
-      <c r="F151" t="s">
-        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6861,10 +6849,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>296</v>
+      </c>
+      <c r="F152" t="s">
         <v>297</v>
-      </c>
-      <c r="F152" t="s">
-        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6890,10 +6878,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>298</v>
+      </c>
+      <c r="F153" t="s">
         <v>299</v>
-      </c>
-      <c r="F153" t="s">
-        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -6919,10 +6907,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>300</v>
+      </c>
+      <c r="F154" t="s">
         <v>301</v>
-      </c>
-      <c r="F154" t="s">
-        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6948,10 +6936,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>302</v>
+      </c>
+      <c r="F155" t="s">
         <v>303</v>
-      </c>
-      <c r="F155" t="s">
-        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6977,10 +6965,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>304</v>
+      </c>
+      <c r="F156" t="s">
         <v>305</v>
-      </c>
-      <c r="F156" t="s">
-        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7006,10 +6994,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>306</v>
+      </c>
+      <c r="F157" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" t="s">
-        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7035,10 +7023,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>308</v>
+      </c>
+      <c r="F158" t="s">
         <v>309</v>
-      </c>
-      <c r="F158" t="s">
-        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7064,10 +7052,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>310</v>
+      </c>
+      <c r="F159" t="s">
         <v>311</v>
-      </c>
-      <c r="F159" t="s">
-        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7093,10 +7081,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>312</v>
+      </c>
+      <c r="F160" t="s">
         <v>313</v>
-      </c>
-      <c r="F160" t="s">
-        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7122,10 +7110,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>314</v>
+      </c>
+      <c r="F161" t="s">
         <v>315</v>
-      </c>
-      <c r="F161" t="s">
-        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7151,10 +7139,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" t="s">
         <v>317</v>
-      </c>
-      <c r="F162" t="s">
-        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7180,10 +7168,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>318</v>
+      </c>
+      <c r="F163" t="s">
         <v>319</v>
-      </c>
-      <c r="F163" t="s">
-        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7209,10 +7197,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>320</v>
+      </c>
+      <c r="F164" t="s">
         <v>321</v>
-      </c>
-      <c r="F164" t="s">
-        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7238,10 +7226,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>322</v>
+      </c>
+      <c r="F165" t="s">
         <v>323</v>
-      </c>
-      <c r="F165" t="s">
-        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7267,10 +7255,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>324</v>
+      </c>
+      <c r="F166" t="s">
         <v>325</v>
-      </c>
-      <c r="F166" t="s">
-        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7296,10 +7284,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
         <v>327</v>
-      </c>
-      <c r="F167" t="s">
-        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7325,10 +7313,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>328</v>
+      </c>
+      <c r="F168" t="s">
         <v>329</v>
-      </c>
-      <c r="F168" t="s">
-        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7354,10 +7342,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>330</v>
+      </c>
+      <c r="F169" t="s">
         <v>331</v>
-      </c>
-      <c r="F169" t="s">
-        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7383,10 +7371,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>332</v>
+      </c>
+      <c r="F170" t="s">
         <v>333</v>
-      </c>
-      <c r="F170" t="s">
-        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7412,10 +7400,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>334</v>
+      </c>
+      <c r="F171" t="s">
         <v>335</v>
-      </c>
-      <c r="F171" t="s">
-        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7441,10 +7429,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" t="s">
         <v>337</v>
-      </c>
-      <c r="F172" t="s">
-        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7470,10 +7458,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>338</v>
+      </c>
+      <c r="F173" t="s">
         <v>339</v>
-      </c>
-      <c r="F173" t="s">
-        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7499,10 +7487,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>340</v>
+      </c>
+      <c r="F174" t="s">
         <v>341</v>
-      </c>
-      <c r="F174" t="s">
-        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7528,10 +7516,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>342</v>
+      </c>
+      <c r="F175" t="s">
         <v>343</v>
-      </c>
-      <c r="F175" t="s">
-        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -7557,10 +7545,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>344</v>
+      </c>
+      <c r="F176" t="s">
         <v>345</v>
-      </c>
-      <c r="F176" t="s">
-        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7586,10 +7574,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>346</v>
+      </c>
+      <c r="F177" t="s">
         <v>347</v>
-      </c>
-      <c r="F177" t="s">
-        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7615,10 +7603,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>348</v>
+      </c>
+      <c r="F178" t="s">
         <v>349</v>
-      </c>
-      <c r="F178" t="s">
-        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7644,10 +7632,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>350</v>
+      </c>
+      <c r="F179" t="s">
         <v>351</v>
-      </c>
-      <c r="F179" t="s">
-        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7673,10 +7661,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>352</v>
+      </c>
+      <c r="F180" t="s">
         <v>353</v>
-      </c>
-      <c r="F180" t="s">
-        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7702,10 +7690,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>354</v>
+      </c>
+      <c r="F181" t="s">
         <v>355</v>
-      </c>
-      <c r="F181" t="s">
-        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7731,10 +7719,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>356</v>
+      </c>
+      <c r="F182" t="s">
         <v>357</v>
-      </c>
-      <c r="F182" t="s">
-        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7760,10 +7748,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>358</v>
+      </c>
+      <c r="F183" t="s">
         <v>359</v>
-      </c>
-      <c r="F183" t="s">
-        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7789,10 +7777,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>360</v>
+      </c>
+      <c r="F184" t="s">
         <v>361</v>
-      </c>
-      <c r="F184" t="s">
-        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7818,10 +7806,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>362</v>
+      </c>
+      <c r="F185" t="s">
         <v>363</v>
-      </c>
-      <c r="F185" t="s">
-        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7847,10 +7835,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>364</v>
+      </c>
+      <c r="F186" t="s">
         <v>365</v>
-      </c>
-      <c r="F186" t="s">
-        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7876,10 +7864,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>366</v>
+      </c>
+      <c r="F187" t="s">
         <v>367</v>
-      </c>
-      <c r="F187" t="s">
-        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7905,10 +7893,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>368</v>
+      </c>
+      <c r="F188" t="s">
         <v>369</v>
-      </c>
-      <c r="F188" t="s">
-        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7934,10 +7922,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>370</v>
+      </c>
+      <c r="F189" t="s">
         <v>371</v>
-      </c>
-      <c r="F189" t="s">
-        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7963,10 +7951,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>372</v>
+      </c>
+      <c r="F190" t="s">
         <v>373</v>
-      </c>
-      <c r="F190" t="s">
-        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7992,10 +7980,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>374</v>
+      </c>
+      <c r="F191" t="s">
         <v>375</v>
-      </c>
-      <c r="F191" t="s">
-        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8021,10 +8009,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>376</v>
+      </c>
+      <c r="F192" t="s">
         <v>377</v>
-      </c>
-      <c r="F192" t="s">
-        <v>378</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8050,10 +8038,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>378</v>
+      </c>
+      <c r="F193" t="s">
         <v>379</v>
-      </c>
-      <c r="F193" t="s">
-        <v>380</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8079,10 +8067,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>200</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8108,10 +8096,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8137,10 +8125,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8166,10 +8154,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8195,10 +8183,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8224,10 +8212,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8253,10 +8241,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8282,10 +8270,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8311,10 +8299,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8340,10 +8328,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8369,10 +8357,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8398,10 +8386,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8427,10 +8415,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8456,10 +8444,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8485,10 +8473,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8514,10 +8502,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8543,10 +8531,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8572,10 +8560,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8601,10 +8589,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8630,10 +8618,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8659,10 +8647,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8688,10 +8676,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8717,10 +8705,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8746,10 +8734,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8775,10 +8763,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8804,10 +8792,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -8833,10 +8821,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8862,10 +8850,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8891,10 +8879,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8920,10 +8908,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8949,10 +8937,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8978,10 +8966,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9007,10 +8995,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G226" t="n">
         <v>5</v>
@@ -9036,10 +9024,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9065,10 +9053,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9094,10 +9082,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9123,10 +9111,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9152,10 +9140,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9181,10 +9169,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9210,10 +9198,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9239,10 +9227,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9268,10 +9256,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9297,10 +9285,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9326,10 +9314,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9355,10 +9343,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9384,10 +9372,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9413,10 +9401,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9442,10 +9430,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9471,10 +9459,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F242" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9500,10 +9488,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F243" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9529,10 +9517,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F244" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9558,10 +9546,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F245" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9587,10 +9575,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F246" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9616,10 +9604,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F247" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9645,10 +9633,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F248" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9674,10 +9662,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F249" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9703,10 +9691,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F250" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9732,10 +9720,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F251" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9761,10 +9749,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F252" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9790,10 +9778,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F253" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9819,10 +9807,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F254" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9848,10 +9836,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F255" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9877,10 +9865,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F256" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9906,10 +9894,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F257" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9935,10 +9923,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F258" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9964,10 +9952,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F259" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9993,10 +9981,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F260" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10022,10 +10010,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F261" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10051,10 +10039,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F262" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G262" t="n">
         <v>10</v>
@@ -10080,10 +10068,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F263" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10109,10 +10097,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F264" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10138,10 +10126,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F265" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10167,10 +10155,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F266" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10196,10 +10184,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F267" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10225,10 +10213,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F268" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10254,10 +10242,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F269" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10283,10 +10271,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F270" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10312,10 +10300,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F271" t="s">
-        <v>536</v>
+        <v>400</v>
       </c>
       <c r="G271" t="n">
         <v>6</v>
@@ -10341,10 +10329,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F272" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -10370,10 +10358,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F273" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10399,10 +10387,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F274" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10428,10 +10416,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F275" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10457,10 +10445,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F276" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10486,10 +10474,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F277" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G277" t="n">
         <v>6</v>
@@ -10515,10 +10503,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F278" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10544,10 +10532,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F279" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10573,10 +10561,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F280" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10602,10 +10590,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F281" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10631,10 +10619,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F282" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10660,10 +10648,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F283" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10689,10 +10677,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F284" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10718,10 +10706,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F285" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10747,10 +10735,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F286" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10776,10 +10764,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F287" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10805,10 +10793,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F288" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10834,10 +10822,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F289" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10863,10 +10851,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F290" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10892,10 +10880,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F291" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G291" t="n">
         <v>15</v>
@@ -10921,10 +10909,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F292" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10950,10 +10938,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F293" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10979,10 +10967,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F294" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11008,10 +10996,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F295" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G295" t="n">
         <v>7</v>
@@ -11037,10 +11025,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F296" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G296" t="n">
         <v>3</v>
@@ -11066,10 +11054,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F297" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11095,10 +11083,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F298" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11124,10 +11112,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F299" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11153,10 +11141,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F300" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11182,10 +11170,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F301" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11211,10 +11199,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F302" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G302" t="n">
         <v>5</v>
@@ -11240,10 +11228,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -11269,10 +11257,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11298,10 +11286,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11327,10 +11315,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11356,10 +11344,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F307" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G307" t="n">
         <v>7</v>
@@ -11385,10 +11373,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11443,10 +11431,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F310" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11472,10 +11460,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F311" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11501,10 +11489,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F312" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11530,10 +11518,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F313" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11559,10 +11547,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F314" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11588,10 +11576,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F315" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G315" t="n">
         <v>2</v>
@@ -11617,10 +11605,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F316" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11646,10 +11634,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F317" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11675,10 +11663,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F318" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11704,10 +11692,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11733,10 +11721,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11762,10 +11750,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11791,10 +11779,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11820,10 +11808,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11849,10 +11837,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11878,10 +11866,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11907,10 +11895,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11936,10 +11924,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11965,10 +11953,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F328" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11994,10 +11982,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F329" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12023,10 +12011,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F330" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12052,10 +12040,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F331" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12081,10 +12069,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F332" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12110,10 +12098,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F333" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12139,10 +12127,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F334" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12168,10 +12156,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F335" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12197,10 +12185,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F336" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12226,10 +12214,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F337" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12255,10 +12243,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F338" t="s">
-        <v>662</v>
+        <v>573</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12284,10 +12272,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F339" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12313,10 +12301,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F340" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12342,10 +12330,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F341" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12371,10 +12359,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F342" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12400,10 +12388,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F343" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12429,10 +12417,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F344" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12458,10 +12446,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F345" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12487,10 +12475,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F346" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12516,10 +12504,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F347" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12545,10 +12533,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F348" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12574,10 +12562,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F349" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12603,10 +12591,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F350" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12632,10 +12620,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F351" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12661,10 +12649,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F352" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12690,10 +12678,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F353" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12719,10 +12707,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F354" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12748,10 +12736,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F355" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12777,10 +12765,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F356" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12806,10 +12794,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F357" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G357" t="n">
         <v>20</v>
@@ -12835,10 +12823,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F358" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
